--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA Projects\_MyGoComponents\ReFramework for Tabular Data\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TR997437\Desktop\RAS Otomasyon\IT05\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC6BBFF-DF84-4ABD-84EB-D0FA9E8F2FAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D0FC70-9BDF-4841-8145-8AB857EB9101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="5655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -180,15 +180,6 @@
     <t>TimestampFormat</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Debit</t>
-  </si>
-  <si>
     <t>InputFilePath</t>
   </si>
   <si>
@@ -216,9 +207,6 @@
     <t>Names of the columns from input file to not be included in the status file. By default, all columns from the input file are included in the status file. Multiple values can be specified delimited with comma (,). For example, if in the input file you have columns ID, Firstname, Lastname and Company but you want to exclude the Firstname and Lastname values from the status file, set this field to "Firstname,Lastname".</t>
   </si>
   <si>
-    <t>Debit,Credit,Cash</t>
-  </si>
-  <si>
     <t>Relative or full path of the file for input data. The file can be either a CSV format (.csv) or any of the Microsoft Excel formats (.xls, .xlsx, etc).</t>
   </si>
   <si>
@@ -240,10 +228,28 @@
     <t>Status file can be created in Excel or CSV format.</t>
   </si>
   <si>
-    <t>Data\input_data.xlsx</t>
-  </si>
-  <si>
-    <t>Sheet1</t>
+    <t>Data\Senaryo 5-Uygulama Kapsam Listesi.xlsx</t>
+  </si>
+  <si>
+    <t>2018-Uygulama-Sistem Özet</t>
+  </si>
+  <si>
+    <t>https://tur-auraonline.tr.ema.pwcinternal.com/#/3455f886-aade-4c04-bd49-7028fc83cd8d/dashboard/individual</t>
+  </si>
+  <si>
+    <t>RAS Otomasyon Test Financial Audit</t>
+  </si>
+  <si>
+    <t>AuraPageUrl_TestFinancialAudit</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Veritabanı</t>
+  </si>
+  <si>
+    <t>Uygulma Sunucusu İşletim Sistemi</t>
   </si>
 </sst>
 </file>
@@ -289,10 +295,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,7 +617,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -670,32 +677,32 @@
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -707,29 +714,26 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -737,10 +741,10 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -748,10 +752,10 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -759,29 +763,39 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1998,10 +2012,10 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TR997437\Desktop\RAS Otomasyon\IT05\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TR997437\Desktop\RAS Otomasyon\IT06\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D0FC70-9BDF-4841-8145-8AB857EB9101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5C6956-0ACF-47A1-8C31-F9A7EABD8C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -156,9 +156,6 @@
     <t>logF_BusinessProcessName</t>
   </si>
   <si>
-    <t>Framework</t>
-  </si>
-  <si>
     <t>This is a logging field which allows you to group the log data of two or more subprocesses under the same business process name</t>
   </si>
   <si>
@@ -250,13 +247,22 @@
   </si>
   <si>
     <t>Uygulma Sunucusu İşletim Sistemi</t>
+  </si>
+  <si>
+    <t>RAS IT06</t>
+  </si>
+  <si>
+    <t>DelayDuration</t>
+  </si>
+  <si>
+    <t>00:00:15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -273,6 +279,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -295,11 +308,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -668,118 +683,118 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
         <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
         <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
         <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1778,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2009,18 +2024,25 @@
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2995,6 +3017,7 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
